--- a/src/static_in_env/assets/excel/bookpython.xlsx
+++ b/src/static_in_env/assets/excel/bookpython.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syedmohdafiq/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syedmohdafiq/Desktop/jpspy/src/static_in_env/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20328B3E-8DA5-3E43-9F00-C6A8F95B6B40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736A44D8-34F8-854D-8F1C-433622F9EF00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{BE73D8B2-A58E-4249-908A-A07467A438FF}"/>
+    <workbookView xWindow="480" yWindow="940" windowWidth="25040" windowHeight="14060" xr2:uid="{BE73D8B2-A58E-4249-908A-A07467A438FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A653CA8E-F7C7-AA48-8A27-3F59168ECC3E}">
-  <dimension ref="A3:G3"/>
+  <dimension ref="A3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,6 +438,78 @@
       </c>
       <c r="G3" s="1"/>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:G3"/>
